--- a/SPEC DESIGN/SPEC/DesignSpec_Business_Fresh_Food_Organista_06042022.xlsx
+++ b/SPEC DESIGN/SPEC/DesignSpec_Business_Fresh_Food_Organista_06042022.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="Sô_la_mviê_cNa_y"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ĐỒ ÁN JAVA\SPEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ĐỒ ÁN JAVA\SPEC DESIGN\SPEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26304" windowHeight="14172" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26304" windowHeight="14172"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan Project" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="107">
   <si>
     <t>STT</t>
   </si>
@@ -448,6 +448,15 @@
   </si>
   <si>
     <t>• Nhân viên làm việc ngày lễ: 40000VNĐ/giờ (Việc thêm ngày lễ không thể tự động được thì admin có thể thêm bằng tay)</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>Use case</t>
   </si>
 </sst>
 </file>
@@ -743,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -756,7 +765,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -807,6 +815,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,83 +1167,84 @@
   <sheetPr codeName="Trang_tính2"/>
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="E4" s="18" t="s">
+      <c r="C4" s="30"/>
+      <c r="E4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>44659</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="30"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1275,10 +1286,10 @@
     </row>
     <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="12"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
@@ -1302,7 +1313,7 @@
       <c r="H38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1310,16 +1321,20 @@
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="10"/>
+      <c r="C39" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="34">
+        <v>44659</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="13" t="s">
         <v>22</v>
       </c>
       <c r="L39" s="4" t="s">
@@ -1330,14 +1345,20 @@
       <c r="B40" s="8">
         <v>2</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="35">
+        <v>44659</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="K40" s="15" t="s">
+      <c r="I40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="14" t="s">
         <v>21</v>
       </c>
       <c r="L40" s="4" t="s">
@@ -1348,14 +1369,20 @@
       <c r="B41" s="8">
         <v>3</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="35">
+        <v>44663</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="K41" s="16" t="s">
+      <c r="I41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="15" t="s">
         <v>20</v>
       </c>
       <c r="L41" s="4" t="s">
@@ -1373,7 +1400,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="K42" s="17" t="s">
+      <c r="K42" s="16" t="s">
         <v>19</v>
       </c>
       <c r="L42" s="4" t="s">
@@ -1666,17 +1693,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1744,8 +1771,8 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1789,11 +1816,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" s="19" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1848,11 +1875,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" s="19" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1901,7 +1928,7 @@
       <c r="D13" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>0.03</v>
       </c>
       <c r="G13" t="s">
@@ -1915,7 +1942,7 @@
       <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>0.05</v>
       </c>
     </row>
@@ -1923,7 +1950,7 @@
       <c r="D15" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -1931,7 +1958,7 @@
       <c r="D16" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>0.1</v>
       </c>
     </row>
@@ -1939,7 +1966,7 @@
       <c r="D17" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>0.15</v>
       </c>
     </row>
@@ -1963,11 +1990,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2015,17 +2042,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
